--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value23.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value23.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146381810967011</v>
+        <v>4.874826908111572</v>
       </c>
       <c r="B1">
-        <v>1.362292262486868</v>
+        <v>4.147600173950195</v>
       </c>
       <c r="C1">
-        <v>1.406554459758331</v>
+        <v>3.638537168502808</v>
       </c>
       <c r="D1">
-        <v>1.58039224639133</v>
+        <v>4.537003040313721</v>
       </c>
       <c r="E1">
-        <v>1.999118759377479</v>
+        <v>5.081137180328369</v>
       </c>
     </row>
   </sheetData>
